--- a/Code/mesos/工作簿1.xlsx
+++ b/Code/mesos/工作簿1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenanguo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenanguo/project/develop-base/Code/mesos/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <t>2016年网络部后评估管理工具</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -721,7 +721,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -823,8 +823,12 @@
       <c r="F4" s="1">
         <v>10007</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
         <v>44</v>
@@ -895,8 +899,12 @@
       <c r="F7" s="1">
         <v>10008</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
         <v>35</v>
@@ -991,8 +999,12 @@
       <c r="F10" s="1">
         <v>10006</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
         <v>39</v>
@@ -1041,10 +1053,12 @@
       <c r="F12" s="11">
         <v>10003</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="11"/>
+      <c r="G12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11" t="s">
         <v>36</v>

--- a/Code/mesos/工作簿1.xlsx
+++ b/Code/mesos/工作簿1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenanguo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenanguo/project/develop-base/Code/mesos/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>2016年网络部后评估管理工具</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +214,10 @@
   </si>
   <si>
     <t>zxjs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jkyth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -721,7 +725,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -866,13 +870,21 @@
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="1">
+        <v>10009</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="7"/>
     </row>

--- a/Code/mesos/工作簿1.xlsx
+++ b/Code/mesos/工作簿1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1460" windowWidth="25020" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24920" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
   <si>
     <t>2016年网络部后评估管理工具</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -725,7 +725,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -914,7 +914,9 @@
         <v>35</v>
       </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
